--- a/numero_materiais_cadernos9.xlsx
+++ b/numero_materiais_cadernos9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="15">
   <si>
     <t>Tipo de material</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,21 +451,21 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>44228</v>
+        <v>43831</v>
       </c>
       <c r="D2">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="E2">
-        <v>3443</v>
+        <v>18406</v>
       </c>
       <c r="F2">
-        <v>0.411850130699971</v>
+        <v>0.07676844507225905</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -474,1033 +474,3533 @@
         <v>44317</v>
       </c>
       <c r="D3">
-        <v>2310</v>
+        <v>2453</v>
       </c>
       <c r="E3">
-        <v>24744</v>
+        <v>25195</v>
       </c>
       <c r="F3">
-        <v>0.09335596508244423</v>
+        <v>0.09736058741813852</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>44378</v>
+        <v>43983</v>
       </c>
       <c r="D4">
-        <v>173</v>
+        <v>3762</v>
       </c>
       <c r="E4">
-        <v>4085</v>
+        <v>37552</v>
       </c>
       <c r="F4">
-        <v>0.0423500611995104</v>
+        <v>0.1001810822326374</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>44256</v>
+        <v>43922</v>
       </c>
       <c r="D5">
-        <v>20473</v>
+        <v>12916</v>
       </c>
       <c r="E5">
-        <v>121119</v>
+        <v>70756</v>
       </c>
       <c r="F5">
-        <v>0.169032108917676</v>
+        <v>0.1825428232234722</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="D6">
-        <v>3485</v>
+        <v>726</v>
       </c>
       <c r="E6">
-        <v>35719</v>
+        <v>21038</v>
       </c>
       <c r="F6">
-        <v>0.09756712114000952</v>
+        <v>0.03450898374370187</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>44348</v>
+        <v>44287</v>
       </c>
       <c r="D7">
-        <v>679</v>
+        <v>3541</v>
       </c>
       <c r="E7">
-        <v>21821</v>
+        <v>34858</v>
       </c>
       <c r="F7">
-        <v>0.03111681407818157</v>
+        <v>0.1015835676171897</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>44317</v>
+        <v>44013</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>1129</v>
       </c>
       <c r="E8">
-        <v>24744</v>
+        <v>28667</v>
       </c>
       <c r="F8">
-        <v>0.001454898157129001</v>
+        <v>0.03938326298531412</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>44348</v>
+        <v>44044</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1653</v>
       </c>
       <c r="E9">
-        <v>21821</v>
+        <v>25551</v>
       </c>
       <c r="F9">
-        <v>0.0001374822418770909</v>
+        <v>0.06469414112950569</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>44256</v>
+        <v>43891</v>
       </c>
       <c r="D10">
-        <v>77</v>
+        <v>16108</v>
       </c>
       <c r="E10">
-        <v>121119</v>
+        <v>99903</v>
       </c>
       <c r="F10">
-        <v>0.0006357384060304329</v>
+        <v>0.1612363993073281</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>44287</v>
+        <v>43952</v>
       </c>
       <c r="D11">
-        <v>112</v>
+        <v>3711</v>
       </c>
       <c r="E11">
-        <v>35719</v>
+        <v>36192</v>
       </c>
       <c r="F11">
-        <v>0.003135586102634452</v>
+        <v>0.1025364721485411</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>44256</v>
+        <v>44378</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>532</v>
       </c>
       <c r="E12">
-        <v>121119</v>
+        <v>8025</v>
       </c>
       <c r="F12">
-        <v>0.0003137410315474863</v>
+        <v>0.06629283489096573</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>44317</v>
+        <v>44075</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>5287</v>
       </c>
       <c r="E13">
-        <v>24744</v>
+        <v>30646</v>
       </c>
       <c r="F13">
-        <v>0.0005657937277723893</v>
+        <v>0.1725184363375318</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>21060</v>
       </c>
       <c r="E14">
-        <v>21821</v>
+        <v>122984</v>
       </c>
       <c r="F14">
-        <v>0.0005041015535493332</v>
+        <v>0.1712417875496</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>44287</v>
+        <v>44228</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>70310</v>
       </c>
       <c r="E15">
-        <v>35719</v>
+        <v>333774</v>
       </c>
       <c r="F15">
-        <v>0.0005039334807805369</v>
+        <v>0.2106515186922888</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>44287</v>
+        <v>43862</v>
       </c>
       <c r="D16">
-        <v>521</v>
+        <v>1472</v>
       </c>
       <c r="E16">
-        <v>35719</v>
+        <v>10624</v>
       </c>
       <c r="F16">
-        <v>0.01458607463814776</v>
+        <v>0.1385542168674699</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>44317</v>
+        <v>44105</v>
       </c>
       <c r="D17">
-        <v>113</v>
+        <v>670</v>
       </c>
       <c r="E17">
-        <v>24744</v>
+        <v>16197</v>
       </c>
       <c r="F17">
-        <v>0.004566763659877142</v>
+        <v>0.04136568500339569</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
+        <v>174</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44228</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>3443</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>0.005808887598024978</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>44378</v>
+        <v>44166</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>1749</v>
       </c>
       <c r="E19">
-        <v>4085</v>
+        <v>6038</v>
       </c>
       <c r="F19">
-        <v>0.003182374541003672</v>
+        <v>0.289665452136469</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>44256</v>
+        <v>44197</v>
       </c>
       <c r="D20">
-        <v>550</v>
+        <v>79814</v>
       </c>
       <c r="E20">
-        <v>121119</v>
+        <v>323424</v>
       </c>
       <c r="F20">
-        <v>0.004540988614503092</v>
+        <v>0.2467782230137529</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>44348</v>
+        <v>44136</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>1112</v>
       </c>
       <c r="E21">
-        <v>21821</v>
+        <v>13686</v>
       </c>
       <c r="F21">
-        <v>0.001191512762934788</v>
+        <v>0.08125091334210141</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>44287</v>
+        <v>44228</v>
       </c>
       <c r="D22">
-        <v>5795</v>
+        <v>1699</v>
       </c>
       <c r="E22">
-        <v>35719</v>
+        <v>333774</v>
       </c>
       <c r="F22">
-        <v>0.1622385845068451</v>
+        <v>0.005090270662184592</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
-        <v>44256</v>
+        <v>43952</v>
       </c>
       <c r="D23">
-        <v>22858</v>
+        <v>127</v>
       </c>
       <c r="E23">
-        <v>121119</v>
+        <v>36192</v>
       </c>
       <c r="F23">
-        <v>0.1887234868187485</v>
+        <v>0.003509062776304156</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
-        <v>44228</v>
+        <v>44136</v>
       </c>
       <c r="D24">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c r="E24">
-        <v>3443</v>
+        <v>13686</v>
       </c>
       <c r="F24">
-        <v>0.07871042695323846</v>
+        <v>0.004457109454917433</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
-        <v>44348</v>
+        <v>43983</v>
       </c>
       <c r="D25">
-        <v>6600</v>
+        <v>109</v>
       </c>
       <c r="E25">
-        <v>21821</v>
+        <v>37552</v>
       </c>
       <c r="F25">
-        <v>0.3024609321295999</v>
+        <v>0.002902641670217299</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
-        <v>44317</v>
+        <v>44197</v>
       </c>
       <c r="D26">
-        <v>4177</v>
+        <v>1460</v>
       </c>
       <c r="E26">
-        <v>24744</v>
+        <v>323424</v>
       </c>
       <c r="F26">
-        <v>0.1688086000646621</v>
+        <v>0.004514198080538241</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>44378</v>
+        <v>44075</v>
       </c>
       <c r="D27">
-        <v>521</v>
+        <v>112</v>
       </c>
       <c r="E27">
-        <v>4085</v>
+        <v>30646</v>
       </c>
       <c r="F27">
-        <v>0.1275397796817626</v>
+        <v>0.003654636820465966</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>44228</v>
+        <v>44013</v>
       </c>
       <c r="D28">
-        <v>671</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>3443</v>
+        <v>28667</v>
       </c>
       <c r="F28">
-        <v>0.194888178913738</v>
+        <v>0.0008371995674468901</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
-        <v>44317</v>
+        <v>44256</v>
       </c>
       <c r="D29">
-        <v>5203</v>
+        <v>77</v>
       </c>
       <c r="E29">
-        <v>24744</v>
+        <v>122984</v>
       </c>
       <c r="F29">
-        <v>0.2102731975428387</v>
+        <v>0.0006260977037663436</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
-        <v>44287</v>
+        <v>44105</v>
       </c>
       <c r="D30">
-        <v>9361</v>
+        <v>95</v>
       </c>
       <c r="E30">
-        <v>35719</v>
+        <v>16197</v>
       </c>
       <c r="F30">
-        <v>0.262073406310367</v>
+        <v>0.005865283694511329</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2">
-        <v>44348</v>
+        <v>44044</v>
       </c>
       <c r="D31">
-        <v>6360</v>
+        <v>122</v>
       </c>
       <c r="E31">
-        <v>21821</v>
+        <v>25551</v>
       </c>
       <c r="F31">
-        <v>0.2914623527794327</v>
+        <v>0.004774764197096004</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2">
-        <v>44378</v>
+        <v>44166</v>
       </c>
       <c r="D32">
-        <v>759</v>
+        <v>108</v>
       </c>
       <c r="E32">
-        <v>4085</v>
+        <v>6038</v>
       </c>
       <c r="F32">
-        <v>0.1858017135862913</v>
+        <v>0.01788671745611129</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2">
-        <v>44256</v>
+        <v>44317</v>
       </c>
       <c r="D33">
-        <v>39647</v>
+        <v>38</v>
       </c>
       <c r="E33">
-        <v>121119</v>
+        <v>25195</v>
       </c>
       <c r="F33">
-        <v>0.3273392283621893</v>
+        <v>0.001508235761063703</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2">
-        <v>44348</v>
+        <v>44287</v>
       </c>
       <c r="D34">
-        <v>1247</v>
+        <v>111</v>
       </c>
       <c r="E34">
-        <v>21821</v>
+        <v>34858</v>
       </c>
       <c r="F34">
-        <v>0.05714678520691077</v>
+        <v>0.003184347925870675</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="D35">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>4085</v>
+        <v>21038</v>
       </c>
       <c r="F35">
-        <v>0.03745410036719706</v>
+        <v>0.0001425991063789334</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2">
-        <v>44317</v>
+        <v>43831</v>
       </c>
       <c r="D36">
-        <v>3543</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>24744</v>
+        <v>18406</v>
       </c>
       <c r="F36">
-        <v>0.1431862269641125</v>
+        <v>0.0001629903292404651</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C37" s="2">
-        <v>44228</v>
+        <v>43891</v>
       </c>
       <c r="D37">
-        <v>459</v>
+        <v>269</v>
       </c>
       <c r="E37">
-        <v>3443</v>
+        <v>99903</v>
       </c>
       <c r="F37">
-        <v>0.1333139703746732</v>
+        <v>0.002692611833478474</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
-        <v>44256</v>
+        <v>43922</v>
       </c>
       <c r="D38">
-        <v>8806</v>
+        <v>49</v>
       </c>
       <c r="E38">
-        <v>121119</v>
+        <v>70756</v>
       </c>
       <c r="F38">
-        <v>0.07270535588966223</v>
+        <v>0.0006925207756232687</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C39" s="2">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="D39">
-        <v>3587</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>35719</v>
+        <v>8025</v>
       </c>
       <c r="F39">
-        <v>0.1004227441977659</v>
+        <v>0.0004984423676012461</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2">
-        <v>44317</v>
+        <v>44013</v>
       </c>
       <c r="D40">
-        <v>4644</v>
+        <v>20</v>
       </c>
       <c r="E40">
-        <v>24744</v>
+        <v>28667</v>
       </c>
       <c r="F40">
-        <v>0.1876818622696411</v>
+        <v>0.0006976663062057417</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="D41">
-        <v>330</v>
+        <v>39</v>
       </c>
       <c r="E41">
-        <v>3443</v>
+        <v>122984</v>
       </c>
       <c r="F41">
-        <v>0.09584664536741214</v>
+        <v>0.0003171144213881481</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="D42">
-        <v>17379</v>
+        <v>11</v>
       </c>
       <c r="E42">
-        <v>121119</v>
+        <v>21038</v>
       </c>
       <c r="F42">
-        <v>0.1434869838753622</v>
+        <v>0.000522863390056089</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C43" s="2">
-        <v>44348</v>
+        <v>44044</v>
       </c>
       <c r="D43">
-        <v>5077</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>21821</v>
+        <v>25551</v>
       </c>
       <c r="F43">
-        <v>0.2326657806699968</v>
+        <v>0.0001565496458064264</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C44" s="2">
-        <v>44378</v>
+        <v>44317</v>
       </c>
       <c r="D44">
-        <v>555</v>
+        <v>16</v>
       </c>
       <c r="E44">
-        <v>4085</v>
+        <v>25195</v>
       </c>
       <c r="F44">
-        <v>0.1358629130966952</v>
+        <v>0.0006350466362373487</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C45" s="2">
-        <v>44287</v>
+        <v>43891</v>
       </c>
       <c r="D45">
-        <v>7847</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>35719</v>
+        <v>99903</v>
       </c>
       <c r="F45">
-        <v>0.2196870013158263</v>
+        <v>9.008738476322033E-05</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2">
-        <v>44256</v>
+        <v>44075</v>
       </c>
       <c r="D46">
-        <v>11291</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>121119</v>
+        <v>30646</v>
       </c>
       <c r="F46">
-        <v>0.09322236808428075</v>
+        <v>6.52613717940351E-05</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2">
-        <v>44317</v>
+        <v>44105</v>
       </c>
       <c r="D47">
-        <v>4703</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>24744</v>
+        <v>16197</v>
       </c>
       <c r="F47">
-        <v>0.1900662786938248</v>
+        <v>0.0002469593134531086</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C48" s="2">
-        <v>44348</v>
+        <v>44197</v>
       </c>
       <c r="D48">
-        <v>1815</v>
+        <v>52</v>
       </c>
       <c r="E48">
-        <v>21821</v>
+        <v>323424</v>
       </c>
       <c r="F48">
-        <v>0.08317675633563998</v>
+        <v>0.0001607796576630058</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2">
-        <v>44287</v>
+        <v>43831</v>
       </c>
       <c r="D49">
-        <v>4993</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>35719</v>
+        <v>18406</v>
       </c>
       <c r="F49">
-        <v>0.1397855483076234</v>
+        <v>5.433010974682169E-05</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C50" s="2">
         <v>44228</v>
       </c>
       <c r="D50">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>3443</v>
+        <v>333774</v>
       </c>
       <c r="F50">
-        <v>0.0795817600929422</v>
+        <v>4.194454930581771E-05</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C51" s="2">
-        <v>44378</v>
+        <v>43862</v>
       </c>
       <c r="D51">
-        <v>1902</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>4085</v>
+        <v>10624</v>
       </c>
       <c r="F51">
-        <v>0.4656058751529988</v>
+        <v>9.412650602409639E-05</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2">
-        <v>44378</v>
+        <v>44166</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>4085</v>
+        <v>6038</v>
       </c>
       <c r="F52">
-        <v>0.002203182374541004</v>
+        <v>0.0001656177542232527</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2">
-        <v>44348</v>
+        <v>43983</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E53">
-        <v>21821</v>
+        <v>37552</v>
       </c>
       <c r="F53">
-        <v>0.0001374822418770909</v>
+        <v>0.0003195568811248402</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>70756</v>
+      </c>
+      <c r="F54">
+        <v>0.0002402623099101136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>140</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D55">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>34858</v>
+      </c>
+      <c r="F55">
+        <v>0.0004876929255837971</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D56">
+        <v>88</v>
+      </c>
+      <c r="E56">
+        <v>36192</v>
+      </c>
+      <c r="F56">
+        <v>0.002431476569407604</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44075</v>
+      </c>
+      <c r="D57">
+        <v>132</v>
+      </c>
+      <c r="E57">
+        <v>30646</v>
+      </c>
+      <c r="F57">
+        <v>0.004307250538406317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>6038</v>
+      </c>
+      <c r="F58">
+        <v>0.002153030804902286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D59">
+        <v>286</v>
+      </c>
+      <c r="E59">
+        <v>70756</v>
+      </c>
+      <c r="F59">
+        <v>0.004042060037311323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44136</v>
+      </c>
+      <c r="D60">
+        <v>22</v>
+      </c>
+      <c r="E60">
+        <v>13686</v>
+      </c>
+      <c r="F60">
+        <v>0.001607482098494812</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>18406</v>
+      </c>
+      <c r="F61">
+        <v>0.0001086602194936434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>112</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D62">
+        <v>2941</v>
+      </c>
+      <c r="E62">
+        <v>323424</v>
+      </c>
+      <c r="F62">
+        <v>0.009093326407440388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>85</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D63">
+        <v>11</v>
+      </c>
+      <c r="E63">
+        <v>16197</v>
+      </c>
+      <c r="F63">
+        <v>0.0006791381119960486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>170</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D64">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <v>8025</v>
+      </c>
+      <c r="F64">
+        <v>0.002367601246105919</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D65">
+        <v>123</v>
+      </c>
+      <c r="E65">
+        <v>37552</v>
+      </c>
+      <c r="F65">
+        <v>0.003275458031529612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>40</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D66">
+        <v>76</v>
+      </c>
+      <c r="E66">
+        <v>36192</v>
+      </c>
+      <c r="F66">
+        <v>0.002099911582670203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>10624</v>
+      </c>
+      <c r="F67">
+        <v>9.412650602409639E-05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D68">
+        <v>1755</v>
+      </c>
+      <c r="E68">
+        <v>333774</v>
+      </c>
+      <c r="F68">
+        <v>0.005258048859407863</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44044</v>
+      </c>
+      <c r="D69">
+        <v>81</v>
+      </c>
+      <c r="E69">
+        <v>25551</v>
+      </c>
+      <c r="F69">
+        <v>0.003170130327580134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D70">
+        <v>533</v>
+      </c>
+      <c r="E70">
+        <v>34858</v>
+      </c>
+      <c r="F70">
+        <v>0.01529060760800964</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>161</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D71">
+        <v>48</v>
+      </c>
+      <c r="E71">
+        <v>21038</v>
+      </c>
+      <c r="F71">
+        <v>0.002281585702062934</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D72">
+        <v>464</v>
+      </c>
+      <c r="E72">
+        <v>99903</v>
+      </c>
+      <c r="F72">
+        <v>0.004644505170014915</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D73">
+        <v>65</v>
+      </c>
+      <c r="E73">
+        <v>28667</v>
+      </c>
+      <c r="F73">
+        <v>0.002267415495168661</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>132</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D74">
+        <v>556</v>
+      </c>
+      <c r="E74">
+        <v>122984</v>
+      </c>
+      <c r="F74">
+        <v>0.004520913289533598</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D75">
+        <v>110</v>
+      </c>
+      <c r="E75">
+        <v>25195</v>
+      </c>
+      <c r="F75">
+        <v>0.004365945624131772</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D76">
+        <v>4465</v>
+      </c>
+      <c r="E76">
+        <v>36192</v>
+      </c>
+      <c r="F76">
+        <v>0.1233698054818744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D77">
+        <v>818</v>
+      </c>
+      <c r="E77">
+        <v>6038</v>
+      </c>
+      <c r="F77">
+        <v>0.1354753229546207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D78">
+        <v>5288</v>
+      </c>
+      <c r="E78">
+        <v>18406</v>
+      </c>
+      <c r="F78">
+        <v>0.2872976203411931</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D79">
+        <v>38046</v>
+      </c>
+      <c r="E79">
+        <v>323424</v>
+      </c>
+      <c r="F79">
+        <v>0.1176350549124369</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>55</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D80">
+        <v>5362</v>
+      </c>
+      <c r="E80">
+        <v>28667</v>
+      </c>
+      <c r="F80">
+        <v>0.1870443366937594</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D81">
+        <v>6123</v>
+      </c>
+      <c r="E81">
+        <v>21038</v>
+      </c>
+      <c r="F81">
+        <v>0.291044776119403</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44136</v>
+      </c>
+      <c r="D82">
+        <v>3496</v>
+      </c>
+      <c r="E82">
+        <v>13686</v>
+      </c>
+      <c r="F82">
+        <v>0.2554435189244483</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D83">
+        <v>6602</v>
+      </c>
+      <c r="E83">
+        <v>37552</v>
+      </c>
+      <c r="F83">
+        <v>0.1758095440988496</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>176</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>148</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D85">
+        <v>4253</v>
+      </c>
+      <c r="E85">
+        <v>25195</v>
+      </c>
+      <c r="F85">
+        <v>0.1688033339948402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>138</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D86">
+        <v>5235</v>
+      </c>
+      <c r="E86">
+        <v>34858</v>
+      </c>
+      <c r="F86">
+        <v>0.1501807332606575</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>82</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D87">
+        <v>3132</v>
+      </c>
+      <c r="E87">
+        <v>16197</v>
+      </c>
+      <c r="F87">
+        <v>0.193369142433784</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>73</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44075</v>
+      </c>
+      <c r="D88">
+        <v>3906</v>
+      </c>
+      <c r="E88">
+        <v>30646</v>
+      </c>
+      <c r="F88">
+        <v>0.1274554591137506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D89">
+        <v>5389</v>
+      </c>
+      <c r="E89">
+        <v>70756</v>
+      </c>
+      <c r="F89">
+        <v>0.07616315224150602</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>19</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D90">
+        <v>14369</v>
+      </c>
+      <c r="E90">
+        <v>99903</v>
+      </c>
+      <c r="F90">
+        <v>0.1438295146291903</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>129</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D91">
+        <v>22967</v>
+      </c>
+      <c r="E91">
+        <v>122984</v>
+      </c>
+      <c r="F91">
+        <v>0.1867478696415794</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D92">
+        <v>2327</v>
+      </c>
+      <c r="E92">
+        <v>10624</v>
+      </c>
+      <c r="F92">
+        <v>0.2190323795180723</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>64</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2">
+        <v>44044</v>
+      </c>
+      <c r="D93">
+        <v>4453</v>
+      </c>
+      <c r="E93">
+        <v>25551</v>
+      </c>
+      <c r="F93">
+        <v>0.1742788931940041</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>168</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D94">
+        <v>1432</v>
+      </c>
+      <c r="E94">
+        <v>8025</v>
+      </c>
+      <c r="F94">
+        <v>0.1784423676012461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>119</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D95">
+        <v>28618</v>
+      </c>
+      <c r="E95">
+        <v>333774</v>
+      </c>
+      <c r="F95">
+        <v>0.08574065085956366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>171</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D96">
+        <v>1566</v>
+      </c>
+      <c r="E96">
+        <v>8025</v>
+      </c>
+      <c r="F96">
+        <v>0.1951401869158879</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>152</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D97">
+        <v>5267</v>
+      </c>
+      <c r="E97">
+        <v>25195</v>
+      </c>
+      <c r="F97">
+        <v>0.2090494145663822</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>133</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D98">
+        <v>40177</v>
+      </c>
+      <c r="E98">
+        <v>122984</v>
+      </c>
+      <c r="F98">
+        <v>0.3266847720028622</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>103</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D99">
+        <v>1006</v>
+      </c>
+      <c r="E99">
+        <v>6038</v>
+      </c>
+      <c r="F99">
+        <v>0.1666114607485923</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D100">
+        <v>88276</v>
+      </c>
+      <c r="E100">
+        <v>323424</v>
+      </c>
+      <c r="F100">
+        <v>0.2729420203819135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>142</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D101">
+        <v>9218</v>
+      </c>
+      <c r="E101">
+        <v>34858</v>
+      </c>
+      <c r="F101">
+        <v>0.264444316943026</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>123</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D102">
+        <v>78993</v>
+      </c>
+      <c r="E102">
+        <v>333774</v>
+      </c>
+      <c r="F102">
+        <v>0.2366661273796042</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>162</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D103">
+        <v>6131</v>
+      </c>
+      <c r="E103">
+        <v>21038</v>
+      </c>
+      <c r="F103">
+        <v>0.2914250404030801</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>177</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>68</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="2">
+        <v>44044</v>
+      </c>
+      <c r="D105">
+        <v>4059</v>
+      </c>
+      <c r="E105">
+        <v>25551</v>
+      </c>
+      <c r="F105">
+        <v>0.1588587530820711</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D106">
+        <v>19666</v>
+      </c>
+      <c r="E106">
+        <v>99903</v>
+      </c>
+      <c r="F106">
+        <v>0.1968509454170545</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>32</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D107">
+        <v>19008</v>
+      </c>
+      <c r="E107">
+        <v>70756</v>
+      </c>
+      <c r="F107">
+        <v>0.2686415286336141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>77</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="2">
+        <v>44075</v>
+      </c>
+      <c r="D108">
+        <v>5222</v>
+      </c>
+      <c r="E108">
+        <v>30646</v>
+      </c>
+      <c r="F108">
+        <v>0.1703974417542257</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>94</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="2">
+        <v>44136</v>
+      </c>
+      <c r="D109">
+        <v>1351</v>
+      </c>
+      <c r="E109">
+        <v>13686</v>
+      </c>
+      <c r="F109">
+        <v>0.09871401432120415</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>59</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D110">
+        <v>5204</v>
+      </c>
+      <c r="E110">
+        <v>28667</v>
+      </c>
+      <c r="F110">
+        <v>0.181532772874734</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>41</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D111">
+        <v>4391</v>
+      </c>
+      <c r="E111">
+        <v>36192</v>
+      </c>
+      <c r="F111">
+        <v>0.1213251547303272</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>86</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D112">
+        <v>2842</v>
+      </c>
+      <c r="E112">
+        <v>16197</v>
+      </c>
+      <c r="F112">
+        <v>0.1754645922084337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D113">
+        <v>2908</v>
+      </c>
+      <c r="E113">
+        <v>18406</v>
+      </c>
+      <c r="F113">
+        <v>0.1579919591437575</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>50</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D114">
+        <v>6222</v>
+      </c>
+      <c r="E114">
+        <v>37552</v>
+      </c>
+      <c r="F114">
+        <v>0.1656902428632296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D115">
+        <v>2315</v>
+      </c>
+      <c r="E115">
+        <v>10624</v>
+      </c>
+      <c r="F115">
+        <v>0.2179028614457831</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D116">
+        <v>1429</v>
+      </c>
+      <c r="E116">
+        <v>10624</v>
+      </c>
+      <c r="F116">
+        <v>0.1345067771084337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>166</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D117">
+        <v>433</v>
+      </c>
+      <c r="E117">
+        <v>8025</v>
+      </c>
+      <c r="F117">
+        <v>0.05395638629283489</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>54</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D118">
+        <v>3239</v>
+      </c>
+      <c r="E118">
+        <v>28667</v>
+      </c>
+      <c r="F118">
+        <v>0.1129870582900199</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>45</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D119">
+        <v>6354</v>
+      </c>
+      <c r="E119">
+        <v>37552</v>
+      </c>
+      <c r="F119">
+        <v>0.1692053685556029</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>127</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D120">
+        <v>8985</v>
+      </c>
+      <c r="E120">
+        <v>122984</v>
+      </c>
+      <c r="F120">
+        <v>0.07305828400442334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>146</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D121">
+        <v>3550</v>
+      </c>
+      <c r="E121">
+        <v>25195</v>
+      </c>
+      <c r="F121">
+        <v>0.1409009724151618</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>36</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D122">
+        <v>6659</v>
+      </c>
+      <c r="E122">
+        <v>36192</v>
+      </c>
+      <c r="F122">
+        <v>0.1839909372236958</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>18</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D123">
+        <v>13655</v>
+      </c>
+      <c r="E123">
+        <v>99903</v>
+      </c>
+      <c r="F123">
+        <v>0.1366825821046415</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
         <v>27</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D124">
+        <v>11113</v>
+      </c>
+      <c r="E124">
+        <v>70756</v>
+      </c>
+      <c r="F124">
+        <v>0.1570608852959466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>137</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D125">
+        <v>3577</v>
+      </c>
+      <c r="E125">
+        <v>34858</v>
+      </c>
+      <c r="F125">
+        <v>0.1026163291066613</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>98</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D126">
+        <v>548</v>
+      </c>
+      <c r="E126">
+        <v>6038</v>
+      </c>
+      <c r="F126">
+        <v>0.0907585293143425</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>63</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="2">
+        <v>44044</v>
+      </c>
+      <c r="D127">
+        <v>4763</v>
+      </c>
+      <c r="E127">
+        <v>25551</v>
+      </c>
+      <c r="F127">
+        <v>0.1864114907440022</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>156</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D128">
+        <v>1245</v>
+      </c>
+      <c r="E128">
+        <v>21038</v>
+      </c>
+      <c r="F128">
+        <v>0.05917862914725734</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>175</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44409</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>72</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="2">
+        <v>44075</v>
+      </c>
+      <c r="D130">
+        <v>4500</v>
+      </c>
+      <c r="E130">
+        <v>30646</v>
+      </c>
+      <c r="F130">
+        <v>0.146838086536579</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>117</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D131">
+        <v>48247</v>
+      </c>
+      <c r="E131">
+        <v>333774</v>
+      </c>
+      <c r="F131">
+        <v>0.1445499050255562</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>107</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D132">
+        <v>32810</v>
+      </c>
+      <c r="E132">
+        <v>323424</v>
+      </c>
+      <c r="F132">
+        <v>0.1014457801523696</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D133">
+        <v>5130</v>
+      </c>
+      <c r="E133">
+        <v>18406</v>
+      </c>
+      <c r="F133">
+        <v>0.2787134630011953</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>90</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44136</v>
+      </c>
+      <c r="D134">
+        <v>3187</v>
+      </c>
+      <c r="E134">
+        <v>13686</v>
+      </c>
+      <c r="F134">
+        <v>0.2328657021774076</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>81</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D135">
+        <v>2881</v>
+      </c>
+      <c r="E135">
+        <v>16197</v>
+      </c>
+      <c r="F135">
+        <v>0.1778724455146015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>104</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D136">
+        <v>1474</v>
+      </c>
+      <c r="E136">
+        <v>6038</v>
+      </c>
+      <c r="F136">
+        <v>0.2441205697250745</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>153</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D137">
+        <v>4740</v>
+      </c>
+      <c r="E137">
+        <v>25195</v>
+      </c>
+      <c r="F137">
+        <v>0.1881325659853146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>95</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="2">
+        <v>44136</v>
+      </c>
+      <c r="D138">
+        <v>2676</v>
+      </c>
+      <c r="E138">
+        <v>13686</v>
+      </c>
+      <c r="F138">
+        <v>0.1955282770714599</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>33</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D139">
+        <v>17679</v>
+      </c>
+      <c r="E139">
+        <v>70756</v>
+      </c>
+      <c r="F139">
+        <v>0.2498586692294646</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>87</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D140">
+        <v>3435</v>
+      </c>
+      <c r="E140">
+        <v>16197</v>
+      </c>
+      <c r="F140">
+        <v>0.212076310427857</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D141">
+        <v>1990</v>
+      </c>
+      <c r="E141">
+        <v>10624</v>
+      </c>
+      <c r="F141">
+        <v>0.1873117469879518</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D142">
+        <v>7602</v>
+      </c>
+      <c r="E142">
+        <v>34858</v>
+      </c>
+      <c r="F142">
+        <v>0.2180848011934133</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>42</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D143">
+        <v>11561</v>
+      </c>
+      <c r="E143">
+        <v>36192</v>
+      </c>
+      <c r="F143">
+        <v>0.319435234305924</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>124</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D144">
+        <v>33162</v>
+      </c>
+      <c r="E144">
+        <v>333774</v>
+      </c>
+      <c r="F144">
+        <v>0.09935465314853763</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>114</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D145">
+        <v>43119</v>
+      </c>
+      <c r="E145">
+        <v>323424</v>
+      </c>
+      <c r="F145">
+        <v>0.1333203472840606</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>51</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D146">
+        <v>10386</v>
+      </c>
+      <c r="E146">
+        <v>37552</v>
+      </c>
+      <c r="F146">
+        <v>0.2765764806135492</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>172</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D147">
+        <v>1141</v>
+      </c>
+      <c r="E147">
+        <v>8025</v>
+      </c>
+      <c r="F147">
+        <v>0.1421806853582555</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>134</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D148">
+        <v>17486</v>
+      </c>
+      <c r="E148">
+        <v>122984</v>
+      </c>
+      <c r="F148">
+        <v>0.1421810967280297</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>78</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="2">
+        <v>44075</v>
+      </c>
+      <c r="D149">
+        <v>4942</v>
+      </c>
+      <c r="E149">
+        <v>30646</v>
+      </c>
+      <c r="F149">
+        <v>0.1612608497030608</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>60</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D150">
+        <v>5192</v>
+      </c>
+      <c r="E150">
+        <v>28667</v>
+      </c>
+      <c r="F150">
+        <v>0.1811141730910106</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>24</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D151">
+        <v>25163</v>
+      </c>
+      <c r="E151">
+        <v>99903</v>
+      </c>
+      <c r="F151">
+        <v>0.2518743180885459</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D152">
+        <v>2304</v>
+      </c>
+      <c r="E152">
+        <v>18406</v>
+      </c>
+      <c r="F152">
+        <v>0.1251765728566772</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>69</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="2">
+        <v>44044</v>
+      </c>
+      <c r="D153">
+        <v>4734</v>
+      </c>
+      <c r="E153">
+        <v>25551</v>
+      </c>
+      <c r="F153">
+        <v>0.1852765058119056</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>163</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D154">
+        <v>4898</v>
+      </c>
+      <c r="E154">
+        <v>21038</v>
+      </c>
+      <c r="F154">
+        <v>0.2328168076813385</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>173</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D155">
+        <v>2889</v>
+      </c>
+      <c r="E155">
+        <v>8025</v>
+      </c>
+      <c r="F155">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>164</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D156">
+        <v>1850</v>
+      </c>
+      <c r="E156">
+        <v>21038</v>
+      </c>
+      <c r="F156">
+        <v>0.08793611560034224</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>16</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" s="2">
+        <v>43862</v>
+      </c>
+      <c r="D157">
+        <v>1089</v>
+      </c>
+      <c r="E157">
+        <v>10624</v>
+      </c>
+      <c r="F157">
+        <v>0.102503765060241</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D158">
+        <v>1357</v>
+      </c>
+      <c r="E158">
+        <v>18406</v>
+      </c>
+      <c r="F158">
+        <v>0.07372595892643703</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>96</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="2">
+        <v>44136</v>
+      </c>
+      <c r="D159">
+        <v>1781</v>
+      </c>
+      <c r="E159">
+        <v>13686</v>
+      </c>
+      <c r="F159">
+        <v>0.1301329826099664</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>25</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="2">
+        <v>43891</v>
+      </c>
+      <c r="D160">
+        <v>10200</v>
+      </c>
+      <c r="E160">
+        <v>99903</v>
+      </c>
+      <c r="F160">
+        <v>0.102099036064983</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>105</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="2">
+        <v>44166</v>
+      </c>
+      <c r="D161">
+        <v>321</v>
+      </c>
+      <c r="E161">
+        <v>6038</v>
+      </c>
+      <c r="F161">
+        <v>0.05316329910566413</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>115</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D162">
+        <v>36899</v>
+      </c>
+      <c r="E162">
+        <v>323424</v>
+      </c>
+      <c r="F162">
+        <v>0.1140886266943702</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>79</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="2">
+        <v>44075</v>
+      </c>
+      <c r="D163">
+        <v>6543</v>
+      </c>
+      <c r="E163">
+        <v>30646</v>
+      </c>
+      <c r="F163">
+        <v>0.2135025778241859</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>70</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44044</v>
+      </c>
+      <c r="D164">
+        <v>5682</v>
+      </c>
+      <c r="E164">
+        <v>25551</v>
+      </c>
+      <c r="F164">
+        <v>0.2223787718680287</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>125</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D165">
+        <v>70954</v>
+      </c>
+      <c r="E165">
+        <v>333774</v>
+      </c>
+      <c r="F165">
+        <v>0.2125809679603564</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>61</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="2">
+        <v>44013</v>
+      </c>
+      <c r="D166">
+        <v>8432</v>
+      </c>
+      <c r="E166">
+        <v>28667</v>
+      </c>
+      <c r="F166">
+        <v>0.2941361146963408</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>88</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D167">
+        <v>3127</v>
+      </c>
+      <c r="E167">
+        <v>16197</v>
+      </c>
+      <c r="F167">
+        <v>0.1930604432919676</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>52</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="2">
+        <v>43983</v>
+      </c>
+      <c r="D168">
+        <v>3982</v>
+      </c>
+      <c r="E168">
+        <v>37552</v>
+      </c>
+      <c r="F168">
+        <v>0.1060396250532595</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>43</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="2">
+        <v>43952</v>
+      </c>
+      <c r="D169">
+        <v>5114</v>
+      </c>
+      <c r="E169">
+        <v>36192</v>
+      </c>
+      <c r="F169">
+        <v>0.1413019451812555</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>144</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D170">
+        <v>5024</v>
+      </c>
+      <c r="E170">
+        <v>34858</v>
+      </c>
+      <c r="F170">
+        <v>0.1441276034195881</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>34</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="2">
+        <v>43922</v>
+      </c>
+      <c r="D171">
+        <v>4299</v>
+      </c>
+      <c r="E171">
+        <v>70756</v>
+      </c>
+      <c r="F171">
+        <v>0.06075809825315168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>154</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="2">
+        <v>44317</v>
+      </c>
+      <c r="D172">
+        <v>4767</v>
+      </c>
+      <c r="E172">
+        <v>25195</v>
+      </c>
+      <c r="F172">
+        <v>0.1892042071839651</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>135</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D173">
+        <v>11632</v>
+      </c>
+      <c r="E173">
+        <v>122984</v>
+      </c>
+      <c r="F173">
+        <v>0.09458140896376764</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>157</v>
+      </c>
+      <c r="B174" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C174" s="2">
+        <v>44348</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+      <c r="E174">
+        <v>21038</v>
+      </c>
+      <c r="F174">
+        <v>0.0001425991063789334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>128</v>
+      </c>
+      <c r="B175" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175">
+        <v>122984</v>
+      </c>
+      <c r="F175">
+        <v>4.065569504976257E-05</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>118</v>
+      </c>
+      <c r="B176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D176">
+        <v>22</v>
+      </c>
+      <c r="E176">
+        <v>333774</v>
+      </c>
+      <c r="F176">
+        <v>6.59128631948564E-05</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>147</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="2">
         <v>44317</v>
       </c>
-      <c r="D54">
+      <c r="D177">
         <v>1</v>
       </c>
-      <c r="E54">
-        <v>24744</v>
-      </c>
-      <c r="F54">
-        <v>4.041383769802781E-05</v>
+      <c r="E177">
+        <v>25195</v>
+      </c>
+      <c r="F177">
+        <v>3.96904147648343E-05</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>108</v>
+      </c>
+      <c r="B178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D178">
+        <v>7</v>
+      </c>
+      <c r="E178">
+        <v>323424</v>
+      </c>
+      <c r="F178">
+        <v>2.16434154546354E-05</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>167</v>
+      </c>
+      <c r="B179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="2">
+        <v>44378</v>
+      </c>
+      <c r="D179">
+        <v>9</v>
+      </c>
+      <c r="E179">
+        <v>8025</v>
+      </c>
+      <c r="F179">
+        <v>0.001121495327102804</v>
       </c>
     </row>
   </sheetData>
